--- a/runs/run841/NotionalETEOutput841.xlsx
+++ b/runs/run841/NotionalETEOutput841.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_HELLMASKER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_49.MISSILE_BRAVER0_49</t>
+    <t>MISSILE_HELLMASKER0_153.MISSILE_HELLMASKER0_153</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_HELLMASKER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1531.13269738725</v>
+        <v>-1514.853336417101</v>
       </c>
       <c r="J2">
-        <v>2010.320271776007</v>
+        <v>1913.806814114608</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1412.193336273989</v>
+        <v>-1516.104806595465</v>
       </c>
       <c r="J3">
-        <v>1903.190215294685</v>
+        <v>1861.091240164594</v>
       </c>
       <c r="K3">
-        <v>311.8928033413186</v>
+        <v>293.5636794995975</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1411.953166751525</v>
+        <v>-1398.292398569851</v>
       </c>
       <c r="J4">
-        <v>1954.024063858024</v>
+        <v>1894.835429342358</v>
       </c>
       <c r="K4">
-        <v>612.9696076007558</v>
+        <v>598.2226582064749</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1388.012147520373</v>
+        <v>-1440.835191459898</v>
       </c>
       <c r="J5">
-        <v>1856.451586894826</v>
+        <v>1916.482155913495</v>
       </c>
       <c r="K5">
-        <v>868.6843387289216</v>
+        <v>901.2508057894529</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1407.148730561363</v>
+        <v>-1344.343126523238</v>
       </c>
       <c r="J6">
-        <v>1819.820145089163</v>
+        <v>1744.403385111916</v>
       </c>
       <c r="K6">
-        <v>1116.754094521958</v>
+        <v>1097.787490812957</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1310.916829372129</v>
+        <v>-1327.629118646618</v>
       </c>
       <c r="J7">
-        <v>1818.912165487732</v>
+        <v>1724.124535798265</v>
       </c>
       <c r="K7">
-        <v>1350.154150444957</v>
+        <v>1361.885920773214</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1337.489349447324</v>
+        <v>-1253.032074335186</v>
       </c>
       <c r="J8">
-        <v>1655.564341725483</v>
+        <v>1646.564586171779</v>
       </c>
       <c r="K8">
-        <v>1581.018856572376</v>
+        <v>1637.517500064445</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.43705944384872</v>
+        <v>-97.29496641075882</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1226.842096439038</v>
+        <v>-1233.546009714594</v>
       </c>
       <c r="J9">
-        <v>1699.531367184224</v>
+        <v>1660.663741441103</v>
       </c>
       <c r="K9">
-        <v>1737.573260688699</v>
+        <v>1827.175475645527</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.7188674102116</v>
+        <v>211.5890789576817</v>
       </c>
       <c r="G10">
-        <v>-87.46005858927965</v>
+        <v>-84.16147262057984</v>
       </c>
       <c r="H10">
-        <v>879.647731235176</v>
+        <v>896.4367472991495</v>
       </c>
       <c r="I10">
-        <v>-1235.010935618253</v>
+        <v>-1263.055771472606</v>
       </c>
       <c r="J10">
-        <v>1587.95425682151</v>
+        <v>1671.435249682143</v>
       </c>
       <c r="K10">
-        <v>2042.768452588937</v>
+        <v>2096.169317663846</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>165.5120133732055</v>
+        <v>173.9623550658964</v>
       </c>
       <c r="G11">
-        <v>-68.85355231077567</v>
+        <v>-63.74298354025037</v>
       </c>
       <c r="H11">
-        <v>1013.028766702014</v>
+        <v>1005.731266530031</v>
       </c>
       <c r="I11">
-        <v>-1160.208452161723</v>
+        <v>-1255.560194728963</v>
       </c>
       <c r="J11">
-        <v>1509.086537809292</v>
+        <v>1593.721802008429</v>
       </c>
       <c r="K11">
-        <v>2149.395335263939</v>
+        <v>2105.138953663184</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.1764671846851</v>
+        <v>140.4083070994501</v>
       </c>
       <c r="G12">
-        <v>-52.82481047787013</v>
+        <v>-48.66149559883571</v>
       </c>
       <c r="H12">
-        <v>1164.668486542673</v>
+        <v>1200.062482173149</v>
       </c>
       <c r="I12">
-        <v>-1139.915468775945</v>
+        <v>-1219.757089395647</v>
       </c>
       <c r="J12">
-        <v>1556.912956949792</v>
+        <v>1491.786931811207</v>
       </c>
       <c r="K12">
-        <v>2258.853356290111</v>
+        <v>2283.766558566653</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.7669042047432</v>
+        <v>126.7159664938448</v>
       </c>
       <c r="G13">
-        <v>-34.38781587071034</v>
+        <v>-33.4816395715544</v>
       </c>
       <c r="H13">
-        <v>1232.627390434203</v>
+        <v>1266.361064156285</v>
       </c>
       <c r="I13">
-        <v>-1130.514832422821</v>
+        <v>-1138.495844025602</v>
       </c>
       <c r="J13">
-        <v>1468.915933631208</v>
+        <v>1445.229108929707</v>
       </c>
       <c r="K13">
-        <v>2509.221427299744</v>
+        <v>2628.452184885841</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.7245952335218</v>
+        <v>107.35216649407</v>
       </c>
       <c r="G14">
-        <v>-18.30742802084314</v>
+        <v>-18.2464699844028</v>
       </c>
       <c r="H14">
-        <v>1304.636759867476</v>
+        <v>1297.703022655794</v>
       </c>
       <c r="I14">
-        <v>-1065.969173850917</v>
+        <v>-1079.590080934785</v>
       </c>
       <c r="J14">
-        <v>1450.804136835181</v>
+        <v>1453.071914903689</v>
       </c>
       <c r="K14">
-        <v>2604.062748702438</v>
+        <v>2595.225837656555</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.0830550383108</v>
+        <v>95.59067516974051</v>
       </c>
       <c r="G15">
-        <v>-0.8975687296520244</v>
+        <v>-0.9015436894335805</v>
       </c>
       <c r="H15">
-        <v>1421.49007478486</v>
+        <v>1389.181631799132</v>
       </c>
       <c r="I15">
-        <v>-1025.764568228927</v>
+        <v>-1034.949699051262</v>
       </c>
       <c r="J15">
-        <v>1335.471459080977</v>
+        <v>1327.201139047761</v>
       </c>
       <c r="K15">
-        <v>2888.981956599427</v>
+        <v>2667.833694578464</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.61159329385029</v>
+        <v>90.69004763389526</v>
       </c>
       <c r="G16">
-        <v>14.96151452745713</v>
+        <v>15.91588438150321</v>
       </c>
       <c r="H16">
-        <v>1356.548772530972</v>
+        <v>1417.833325286664</v>
       </c>
       <c r="I16">
-        <v>-1009.238958176651</v>
+        <v>-993.587550310227</v>
       </c>
       <c r="J16">
-        <v>1365.199649234095</v>
+        <v>1353.468481733173</v>
       </c>
       <c r="K16">
-        <v>3010.321789260859</v>
+        <v>2823.579555348142</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.94893301744341</v>
+        <v>86.37854963594653</v>
       </c>
       <c r="G17">
-        <v>32.71980271892789</v>
+        <v>32.89503515985452</v>
       </c>
       <c r="H17">
-        <v>1486.618853323503</v>
+        <v>1495.779043370984</v>
       </c>
       <c r="I17">
-        <v>-971.4835530236063</v>
+        <v>-942.3565519099042</v>
       </c>
       <c r="J17">
-        <v>1321.391759327934</v>
+        <v>1228.299742635916</v>
       </c>
       <c r="K17">
-        <v>3022.040234087079</v>
+        <v>2977.948117702322</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.85085307165745</v>
+        <v>81.17388774799507</v>
       </c>
       <c r="G18">
-        <v>50.49379357267514</v>
+        <v>48.54246061200577</v>
       </c>
       <c r="H18">
-        <v>1471.296536479614</v>
+        <v>1527.680453878923</v>
       </c>
       <c r="I18">
-        <v>-896.6129583028355</v>
+        <v>-920.964936916852</v>
       </c>
       <c r="J18">
-        <v>1263.264150412942</v>
+        <v>1194.935628146736</v>
       </c>
       <c r="K18">
-        <v>2962.069001113436</v>
+        <v>2961.390593001117</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.14887276157647</v>
+        <v>74.76541598278799</v>
       </c>
       <c r="G19">
-        <v>67.49148397160157</v>
+        <v>63.74891476767996</v>
       </c>
       <c r="H19">
-        <v>1459.448572133515</v>
+        <v>1517.347314581697</v>
       </c>
       <c r="I19">
-        <v>-884.4118114854135</v>
+        <v>-875.6144573724482</v>
       </c>
       <c r="J19">
-        <v>1143.859871163524</v>
+        <v>1186.967118032457</v>
       </c>
       <c r="K19">
-        <v>3254.299802612602</v>
+        <v>3166.193307791044</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.2603433874711</v>
+        <v>74.92453833365505</v>
       </c>
       <c r="G20">
-        <v>85.29693855582146</v>
+        <v>78.59408153351502</v>
       </c>
       <c r="H20">
-        <v>1578.645862914487</v>
+        <v>1587.94102445041</v>
       </c>
       <c r="I20">
-        <v>-868.762638475768</v>
+        <v>-834.3967345599611</v>
       </c>
       <c r="J20">
-        <v>1171.604717234843</v>
+        <v>1161.554713890201</v>
       </c>
       <c r="K20">
-        <v>3092.906909626683</v>
+        <v>3094.864915320055</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.1583760784095</v>
+        <v>72.70960744667296</v>
       </c>
       <c r="G21">
-        <v>98.87542077359073</v>
+        <v>99.07831361056077</v>
       </c>
       <c r="H21">
-        <v>1509.943254485501</v>
+        <v>1595.203353642761</v>
       </c>
       <c r="I21">
-        <v>-806.0695415874966</v>
+        <v>-789.5501992509771</v>
       </c>
       <c r="J21">
-        <v>1065.02353362881</v>
+        <v>1078.467653509224</v>
       </c>
       <c r="K21">
-        <v>3340.354160135285</v>
+        <v>3119.871699914728</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.47128354683639</v>
+        <v>71.2095867189922</v>
       </c>
       <c r="G22">
-        <v>115.9677100411237</v>
+        <v>112.2899832954811</v>
       </c>
       <c r="H22">
-        <v>1650.321282972282</v>
+        <v>1689.781151669883</v>
       </c>
       <c r="I22">
-        <v>-737.7056939355406</v>
+        <v>-740.8596669344844</v>
       </c>
       <c r="J22">
-        <v>1039.344022594391</v>
+        <v>988.5923711129149</v>
       </c>
       <c r="K22">
-        <v>3291.839796374184</v>
+        <v>3246.062788946575</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.45509650366717</v>
+        <v>65.88803519702138</v>
       </c>
       <c r="G23">
-        <v>127.8700427745214</v>
+        <v>127.8872116671356</v>
       </c>
       <c r="H23">
-        <v>1655.38345305568</v>
+        <v>1654.561002646751</v>
       </c>
       <c r="I23">
-        <v>-682.4684036899035</v>
+        <v>-699.5338082124041</v>
       </c>
       <c r="J23">
-        <v>1024.594185558359</v>
+        <v>1007.519133031507</v>
       </c>
       <c r="K23">
-        <v>3311.683188660556</v>
+        <v>3216.988408423716</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.2734969048037</v>
+        <v>64.38117081944155</v>
       </c>
       <c r="G24">
-        <v>143.2457296358007</v>
+        <v>140.980511691135</v>
       </c>
       <c r="H24">
-        <v>1663.045574576476</v>
+        <v>1688.217529260204</v>
       </c>
       <c r="I24">
-        <v>-639.3000619707553</v>
+        <v>-664.378143163781</v>
       </c>
       <c r="J24">
-        <v>904.1964848543579</v>
+        <v>944.635964399358</v>
       </c>
       <c r="K24">
-        <v>3260.104681234968</v>
+        <v>3222.936207480259</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.37632001410322</v>
+        <v>61.64036254218125</v>
       </c>
       <c r="G25">
-        <v>156.5027615268312</v>
+        <v>157.9101956449079</v>
       </c>
       <c r="H25">
-        <v>1630.319969355892</v>
+        <v>1653.775351013217</v>
       </c>
       <c r="I25">
-        <v>-615.8464172283533</v>
+        <v>-612.7920877391205</v>
       </c>
       <c r="J25">
-        <v>924.5152132024398</v>
+        <v>840.0376761255768</v>
       </c>
       <c r="K25">
-        <v>3015.387196068466</v>
+        <v>3139.954308178413</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.77898448832397</v>
+        <v>57.14473783761299</v>
       </c>
       <c r="G26">
-        <v>183.5794380786141</v>
+        <v>188.4699184518739</v>
       </c>
       <c r="H26">
-        <v>1619.059078679767</v>
+        <v>1642.304963036588</v>
       </c>
       <c r="I26">
-        <v>-571.9975403675961</v>
+        <v>-567.350182934556</v>
       </c>
       <c r="J26">
-        <v>853.1843574924925</v>
+        <v>854.4738198032129</v>
       </c>
       <c r="K26">
-        <v>3194.00763230607</v>
+        <v>3048.953034111979</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.25108234550879</v>
+        <v>55.20408695408736</v>
       </c>
       <c r="G27">
-        <v>191.0658404737647</v>
+        <v>194.9491818153288</v>
       </c>
       <c r="H27">
-        <v>1733.431179661797</v>
+        <v>1779.439206371884</v>
       </c>
       <c r="I27">
-        <v>-475.1232895566609</v>
+        <v>-491.9735104556327</v>
       </c>
       <c r="J27">
-        <v>810.8286566657392</v>
+        <v>790.444074395329</v>
       </c>
       <c r="K27">
-        <v>3061.542211187418</v>
+        <v>3073.936653400528</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.7582421719297</v>
+        <v>56.39840306838739</v>
       </c>
       <c r="G28">
-        <v>223.1444118679828</v>
+        <v>212.708994293779</v>
       </c>
       <c r="H28">
-        <v>1804.599589637398</v>
+        <v>1719.355088849122</v>
       </c>
       <c r="I28">
-        <v>-449.4615385657534</v>
+        <v>-421.5891592694088</v>
       </c>
       <c r="J28">
-        <v>762.3984143020174</v>
+        <v>729.0439169051394</v>
       </c>
       <c r="K28">
-        <v>2867.753009357926</v>
+        <v>3066.073636804059</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.87498179633885</v>
+        <v>52.9933899011948</v>
       </c>
       <c r="G29">
-        <v>228.0763097628952</v>
+        <v>226.7845463836432</v>
       </c>
       <c r="H29">
-        <v>1783.346371087643</v>
+        <v>1776.837775745346</v>
       </c>
       <c r="I29">
-        <v>-380.2364578516638</v>
+        <v>-394.8260361117119</v>
       </c>
       <c r="J29">
-        <v>692.6170376954989</v>
+        <v>678.6537099067996</v>
       </c>
       <c r="K29">
-        <v>2853.097046232197</v>
+        <v>2965.423163919571</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.31252501672434</v>
+        <v>51.19117742667736</v>
       </c>
       <c r="G30">
-        <v>246.7320057810364</v>
+        <v>237.4207318546114</v>
       </c>
       <c r="H30">
-        <v>1759.132868406606</v>
+        <v>1795.327411994624</v>
       </c>
       <c r="I30">
-        <v>-333.8432274414728</v>
+        <v>-332.1641060311314</v>
       </c>
       <c r="J30">
-        <v>658.056964646335</v>
+        <v>652.7701863616334</v>
       </c>
       <c r="K30">
-        <v>2790.531209696882</v>
+        <v>2824.188179015037</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.98692455455037</v>
+        <v>53.90082508780073</v>
       </c>
       <c r="G31">
-        <v>259.3007901222553</v>
+        <v>263.9558538018621</v>
       </c>
       <c r="H31">
-        <v>1750.592656335123</v>
+        <v>1789.201365010709</v>
       </c>
       <c r="I31">
-        <v>-279.7612497414883</v>
+        <v>-261.1598900337033</v>
       </c>
       <c r="J31">
-        <v>609.3783395536547</v>
+        <v>591.3064771739387</v>
       </c>
       <c r="K31">
-        <v>2770.632120100615</v>
+        <v>2698.172546523293</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.86019886171223</v>
+        <v>48.86058375635027</v>
       </c>
       <c r="G32">
-        <v>286.9023421375348</v>
+        <v>292.4865593902397</v>
       </c>
       <c r="H32">
-        <v>1710.274361800296</v>
+        <v>1799.033066120684</v>
       </c>
       <c r="I32">
-        <v>-215.0976531282608</v>
+        <v>-199.6214413221404</v>
       </c>
       <c r="J32">
-        <v>539.9646481261128</v>
+        <v>541.196151366173</v>
       </c>
       <c r="K32">
-        <v>2405.580375830165</v>
+        <v>2636.558790546015</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.51072691769354</v>
+        <v>48.13179704516959</v>
       </c>
       <c r="G33">
-        <v>307.4335053808786</v>
+        <v>292.1184365910983</v>
       </c>
       <c r="H33">
-        <v>1788.476595690342</v>
+        <v>1740.491500775937</v>
       </c>
       <c r="I33">
-        <v>-149.0221867991387</v>
+        <v>-151.2780845538602</v>
       </c>
       <c r="J33">
-        <v>487.1447615937572</v>
+        <v>505.1754416369083</v>
       </c>
       <c r="K33">
-        <v>2270.521663728011</v>
+        <v>2402.786450919438</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.98022251275545</v>
+        <v>51.25852444496443</v>
       </c>
       <c r="G34">
-        <v>311.9343045166532</v>
+        <v>313.4656718411471</v>
       </c>
       <c r="H34">
-        <v>1731.567167237456</v>
+        <v>1825.303261913275</v>
       </c>
       <c r="I34">
-        <v>-83.68525091751309</v>
+        <v>-80.80589003631003</v>
       </c>
       <c r="J34">
-        <v>433.2644650017902</v>
+        <v>463.7998398662612</v>
       </c>
       <c r="K34">
-        <v>2230.800732729104</v>
+        <v>2226.946758833051</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.23829423896967</v>
+        <v>46.16469334381654</v>
       </c>
       <c r="G35">
-        <v>318.2840746457509</v>
+        <v>318.3837445023195</v>
       </c>
       <c r="H35">
-        <v>1815.554748836655</v>
+        <v>1884.56114340317</v>
       </c>
       <c r="I35">
-        <v>-19.53816044096427</v>
+        <v>-18.19819326244634</v>
       </c>
       <c r="J35">
-        <v>376.618820465125</v>
+        <v>387.7117255557895</v>
       </c>
       <c r="K35">
-        <v>2125.03387227503</v>
+        <v>2057.405803726959</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.97832872684848</v>
+        <v>47.34132135808217</v>
       </c>
       <c r="G36">
-        <v>359.8660854103313</v>
+        <v>350.4421103870158</v>
       </c>
       <c r="H36">
-        <v>1771.080624507268</v>
+        <v>1920.324711593243</v>
       </c>
       <c r="I36">
-        <v>46.83102231171392</v>
+        <v>46.48461763803763</v>
       </c>
       <c r="J36">
-        <v>341.0607428756451</v>
+        <v>349.4982085065215</v>
       </c>
       <c r="K36">
-        <v>1773.792778433365</v>
+        <v>1847.782161580015</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.53326640830015</v>
+        <v>44.95325633386822</v>
       </c>
       <c r="G37">
-        <v>354.2221694785708</v>
+        <v>365.984913304491</v>
       </c>
       <c r="H37">
-        <v>1911.52693877208</v>
+        <v>1760.721813016359</v>
       </c>
       <c r="I37">
-        <v>115.5196607991975</v>
+        <v>114.0592059291212</v>
       </c>
       <c r="J37">
-        <v>285.0983303869816</v>
+        <v>306.0375421457021</v>
       </c>
       <c r="K37">
-        <v>1557.385610513591</v>
+        <v>1550.245117648605</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.15713707025976</v>
+        <v>45.82821273242867</v>
       </c>
       <c r="G38">
-        <v>382.3930576353331</v>
+        <v>392.2995252973889</v>
       </c>
       <c r="H38">
-        <v>1840.954445719342</v>
+        <v>1769.2184749503</v>
       </c>
       <c r="I38">
-        <v>188.3421013414373</v>
+        <v>180.6782711887468</v>
       </c>
       <c r="J38">
-        <v>244.9582659153524</v>
+        <v>242.7053831598126</v>
       </c>
       <c r="K38">
-        <v>1436.602846599786</v>
+        <v>1384.832545649031</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.77307762743916</v>
+        <v>42.9984260490251</v>
       </c>
       <c r="G39">
-        <v>393.2219651925374</v>
+        <v>406.7667434395979</v>
       </c>
       <c r="H39">
-        <v>1783.472684617999</v>
+        <v>1846.560453444443</v>
       </c>
       <c r="I39">
-        <v>246.5741134412166</v>
+        <v>253.9620844722609</v>
       </c>
       <c r="J39">
-        <v>193.3052020160164</v>
+        <v>208.5663747701191</v>
       </c>
       <c r="K39">
-        <v>1183.86441204815</v>
+        <v>1168.97444670712</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.79047723667058</v>
+        <v>46.22371166653556</v>
       </c>
       <c r="G40">
-        <v>417.054379440806</v>
+        <v>425.5225157028939</v>
       </c>
       <c r="H40">
-        <v>1917.853077381562</v>
+        <v>1851.321113490403</v>
       </c>
       <c r="I40">
-        <v>330.7721344084549</v>
+        <v>313.8431417866153</v>
       </c>
       <c r="J40">
-        <v>151.7461841786998</v>
+        <v>143.6805974478761</v>
       </c>
       <c r="K40">
-        <v>922.4480423701547</v>
+        <v>879.1607247726047</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.56845571552537</v>
+        <v>45.10576310010939</v>
       </c>
       <c r="G41">
-        <v>413.8788559373443</v>
+        <v>412.2687283411307</v>
       </c>
       <c r="H41">
-        <v>1843.35109021173</v>
+        <v>1931.699137443229</v>
       </c>
       <c r="I41">
-        <v>413.4666136602177</v>
+        <v>420.3573012884536</v>
       </c>
       <c r="J41">
-        <v>102.6844560875293</v>
+        <v>99.43367176307726</v>
       </c>
       <c r="K41">
-        <v>634.2530082269014</v>
+        <v>634.4843973912315</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.80927988837431</v>
+        <v>44.56849442788673</v>
       </c>
       <c r="G42">
-        <v>451.3979396237231</v>
+        <v>456.4353672243037</v>
       </c>
       <c r="H42">
-        <v>1796.250764522552</v>
+        <v>1890.837005079286</v>
       </c>
       <c r="I42">
-        <v>471.1818224792021</v>
+        <v>481.6635551847431</v>
       </c>
       <c r="J42">
-        <v>53.87511790696311</v>
+        <v>55.81572767167055</v>
       </c>
       <c r="K42">
-        <v>321.9301193184118</v>
+        <v>330.0672378716287</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.57353264599322</v>
+        <v>44.2521536875082</v>
       </c>
       <c r="G43">
-        <v>462.8350662797132</v>
+        <v>446.3303989185928</v>
       </c>
       <c r="H43">
-        <v>1815.636673895442</v>
+        <v>1950.369253291929</v>
       </c>
       <c r="I43">
-        <v>557.7239230171959</v>
+        <v>541.0121069656842</v>
       </c>
       <c r="J43">
-        <v>5.218978955513221</v>
+        <v>5.456902941099218</v>
       </c>
       <c r="K43">
-        <v>33.94995542339629</v>
+        <v>34.23370616240658</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.37398274808661</v>
+        <v>39.88061193092181</v>
       </c>
       <c r="G44">
-        <v>474.0840845424102</v>
+        <v>478.0471558419005</v>
       </c>
       <c r="H44">
-        <v>1874.326763768182</v>
+        <v>1900.466621395453</v>
       </c>
       <c r="I44">
-        <v>639.0448313702701</v>
+        <v>619.9074466162649</v>
       </c>
       <c r="J44">
-        <v>-42.83893164484164</v>
+        <v>-41.91445295020257</v>
       </c>
       <c r="K44">
-        <v>-295.5977429772521</v>
+        <v>-284.5597093719742</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.94257586505474</v>
+        <v>42.49272220754123</v>
       </c>
       <c r="G45">
-        <v>476.9116969942431</v>
+        <v>492.1138521176674</v>
       </c>
       <c r="H45">
-        <v>1993.683181572949</v>
+        <v>1834.766375468906</v>
       </c>
       <c r="I45">
-        <v>743.8390142260663</v>
+        <v>743.9209431976691</v>
       </c>
       <c r="J45">
-        <v>-90.81968632536432</v>
+        <v>-93.90709044288154</v>
       </c>
       <c r="K45">
-        <v>-615.1534678887884</v>
+        <v>-588.8621337465414</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.32416364833927</v>
+        <v>40.97634669487066</v>
       </c>
       <c r="G46">
-        <v>511.3719849852781</v>
+        <v>525.2189979300399</v>
       </c>
       <c r="H46">
-        <v>1936.407901060919</v>
+        <v>1902.500560238015</v>
       </c>
       <c r="I46">
-        <v>791.8654812079534</v>
+        <v>834.2921749333141</v>
       </c>
       <c r="J46">
-        <v>-146.1956896186246</v>
+        <v>-137.6705854678029</v>
       </c>
       <c r="K46">
-        <v>-987.9568421986188</v>
+        <v>-986.7654966513409</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.74808450636254</v>
+        <v>37.93457934960477</v>
       </c>
       <c r="G47">
-        <v>518.2264129798131</v>
+        <v>530.1773602294119</v>
       </c>
       <c r="H47">
-        <v>2004.140687272048</v>
+        <v>1838.105115650315</v>
       </c>
       <c r="I47">
-        <v>881.0091930752778</v>
+        <v>911.8464153730379</v>
       </c>
       <c r="J47">
-        <v>-185.6977548980553</v>
+        <v>-186.421215156764</v>
       </c>
       <c r="K47">
-        <v>-1260.244033727675</v>
+        <v>-1331.289381015282</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.53379922095422</v>
+        <v>39.00827534180905</v>
       </c>
       <c r="G48">
-        <v>531.802182041911</v>
+        <v>543.3059895612124</v>
       </c>
       <c r="H48">
-        <v>1931.20852585594</v>
+        <v>1928.252686109849</v>
       </c>
       <c r="I48">
-        <v>1018.328256812465</v>
+        <v>948.4087373683144</v>
       </c>
       <c r="J48">
-        <v>-241.9675220684261</v>
+        <v>-246.2893470591409</v>
       </c>
       <c r="K48">
-        <v>-1662.276778941627</v>
+        <v>-1781.203058391953</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.72130125531519</v>
+        <v>38.47463179210715</v>
       </c>
       <c r="G49">
-        <v>563.3266447766414</v>
+        <v>546.5822456752006</v>
       </c>
       <c r="H49">
-        <v>1908.744494220207</v>
+        <v>1924.194999301403</v>
       </c>
       <c r="I49">
-        <v>1039.355931072613</v>
+        <v>1080.142102929726</v>
       </c>
       <c r="J49">
-        <v>-279.5183884240278</v>
+        <v>-298.6899599818145</v>
       </c>
       <c r="K49">
-        <v>-2160.442295700524</v>
+        <v>-2117.14286500192</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.05450006065701</v>
+        <v>37.24803464374499</v>
       </c>
       <c r="G50">
-        <v>599.8777715083619</v>
+        <v>560.146785097821</v>
       </c>
       <c r="H50">
-        <v>2042.747281096511</v>
+        <v>2006.000992552349</v>
       </c>
       <c r="I50">
-        <v>1171.676606156026</v>
+        <v>1136.590470483104</v>
       </c>
       <c r="J50">
-        <v>-344.6300987797979</v>
+        <v>-348.4297867018743</v>
       </c>
       <c r="K50">
-        <v>-2588.332694005755</v>
+        <v>-2618.069691763085</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.77856180255978</v>
+        <v>36.16577169812377</v>
       </c>
       <c r="G51">
-        <v>615.0841363506009</v>
+        <v>596.4935177217095</v>
       </c>
       <c r="H51">
-        <v>2053.989295493617</v>
+        <v>1932.356939212164</v>
       </c>
       <c r="I51">
-        <v>1204.291923000569</v>
+        <v>1270.768411964607</v>
       </c>
       <c r="J51">
-        <v>-395.6040727021642</v>
+        <v>-376.5001119647984</v>
       </c>
       <c r="K51">
-        <v>-2862.674299571177</v>
+        <v>-2907.141346862845</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.77287524884456</v>
+        <v>38.07837432025985</v>
       </c>
       <c r="G52">
-        <v>589.9014552813773</v>
+        <v>606.7043474741595</v>
       </c>
       <c r="H52">
-        <v>1937.06480492816</v>
+        <v>2008.274341295796</v>
       </c>
       <c r="I52">
-        <v>1333.813181188714</v>
+        <v>1299.311691470684</v>
       </c>
       <c r="J52">
-        <v>-414.0165478602128</v>
+        <v>-437.0685023746313</v>
       </c>
       <c r="K52">
-        <v>-3244.998955711668</v>
+        <v>-3280.482813574062</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.77953462841818</v>
+        <v>38.6511206989086</v>
       </c>
       <c r="G53">
-        <v>652.559711672784</v>
+        <v>647.6196300625908</v>
       </c>
       <c r="H53">
-        <v>1917.618917111362</v>
+        <v>1960.521586049482</v>
       </c>
       <c r="I53">
-        <v>1409.416915616185</v>
+        <v>1424.823145868412</v>
       </c>
       <c r="J53">
-        <v>-486.3219013216893</v>
+        <v>-460.8726562159579</v>
       </c>
       <c r="K53">
-        <v>-3746.459426968368</v>
+        <v>-3814.372162882423</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>34.88092066966109</v>
+        <v>34.96778781278594</v>
       </c>
       <c r="G54">
-        <v>651.7784547833982</v>
+        <v>641.394022905904</v>
       </c>
       <c r="H54">
-        <v>2023.448798607533</v>
+        <v>1910.504235430173</v>
       </c>
       <c r="I54">
-        <v>1607.806409239584</v>
+        <v>1547.222847313409</v>
       </c>
       <c r="J54">
-        <v>-508.3231435729546</v>
+        <v>-519.3094814702129</v>
       </c>
       <c r="K54">
-        <v>-4333.814041446492</v>
+        <v>-4393.127425082098</v>
       </c>
     </row>
   </sheetData>
